--- a/StructureDefinition-cbs-mmwr.xlsx
+++ b/StructureDefinition-cbs-mmwr.xlsx
@@ -763,8 +763,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-stringintegerdateTime</t>
+    <t>Quantity
+CodeableConceptstringintegerdateTime</t>
   </si>
   <si>
     <t>Actual result</t>

--- a/StructureDefinition-cbs-mmwr.xlsx
+++ b/StructureDefinition-cbs-mmwr.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T17:12:45-05:00</t>
+    <t>2022-02-17T15:59:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
